--- a/HQSmokeTests/userInputs/test_data/reassign_cases.xlsx
+++ b/HQSmokeTests/userInputs/test_data/reassign_cases.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsi-user\PycharmProjects\New Structure\dimagi-qa\HQSmokeTests\userInputs\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FBE746-5F3A-4FD5-95BA-525A8EFFA938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30796060-6281-4FA3-81E7-5C20EB6B5E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>caseid</t>
   </si>
@@ -31,29 +31,31 @@
     <t>village_name</t>
   </si>
   <si>
-    <t>last_modified_by_user_username</t>
-  </si>
-  <si>
-    <t>opened_by_username</t>
-  </si>
-  <si>
     <t>owner_name</t>
   </si>
   <si>
-    <t>aashiyan</t>
-  </si>
-  <si>
-    <t>kiran</t>
+    <t>lmp</t>
+  </si>
+  <si>
+    <t>automation.user.commcarehq@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,13 +78,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,20 +388,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="3" max="4" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,30 +411,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{71116476-2102-499E-AB00-8FAA34C085D7}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>